--- a/netlify/functions/template.xlsx
+++ b/netlify/functions/template.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>BEGA Illuminazione s.r.l</t>
   </si>
@@ -157,69 +157,6 @@
   </si>
   <si>
     <t>Antonio Affusto</t>
-  </si>
-  <si>
-    <t>Lavaggio Auto</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bar </t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>city tax</t>
-  </si>
-  <si>
-    <t>Trasferta Innsbruck</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>hotel</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>autostrada</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>parcheggio</t>
-  </si>
-  <si>
-    <t>Next Studio</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>palmieri</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>Sanzone/Palmieri</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>30/01/20260</t>
-  </si>
-  <si>
-    <t>Sanzone</t>
   </si>
 </sst>
 </file>
@@ -1443,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -1546,47 +1483,27 @@
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="47"/>
-      <c r="G7" s="48">
+      <c r="G7" s="48" t="str">
         <f>IF(SUM(F7:F10)=0,"",SUM(F7:F10))</f>
-        <v>53.03</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:9" s="63" customFormat="1" ht="15.95" customHeight="1">
       <c r="A8" s="64"/>
-      <c r="B8" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="61">
-        <v>46035</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="65">
-        <v>1.5</v>
-      </c>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="66"/>
     </row>
     <row r="9" spans="1:9" s="63" customFormat="1" ht="15.95" customHeight="1">
       <c r="A9" s="64"/>
-      <c r="B9" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="61">
-        <v>46030</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="65">
-        <v>51.53</v>
-      </c>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="66"/>
     </row>
     <row r="10" spans="1:9" ht="15.95" customHeight="1">
@@ -1598,121 +1515,63 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="47"/>
-      <c r="G10" s="48">
+      <c r="G10" s="48" t="str">
         <f>IF(SUM(F10:F17)=0,"",SUM(F10:F17))</f>
-        <v>56</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.95" customHeight="1">
       <c r="A11" s="29"/>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="61">
-        <v>46034</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>22</v>
-      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
       <c r="E11" s="62"/>
-      <c r="F11" s="65">
-        <v>15</v>
-      </c>
+      <c r="F11" s="65"/>
       <c r="G11" s="46"/>
     </row>
     <row r="12" spans="1:9" s="63" customFormat="1" ht="15.95" customHeight="1">
       <c r="A12" s="64"/>
-      <c r="B12" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="61">
-        <v>46036</v>
-      </c>
-      <c r="D12" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="65">
-        <v>12.5</v>
-      </c>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="65"/>
       <c r="G12" s="66"/>
     </row>
     <row r="13" spans="1:9" s="63" customFormat="1" ht="15.95" customHeight="1">
       <c r="A13" s="64"/>
-      <c r="B13" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="61">
-        <v>46037</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="65">
-        <v>12.5</v>
-      </c>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="65"/>
       <c r="G13" s="66"/>
     </row>
     <row r="14" spans="1:9" s="63" customFormat="1" ht="15.95" customHeight="1">
       <c r="A14" s="64"/>
-      <c r="B14" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="61">
-        <v>46049</v>
-      </c>
-      <c r="D14" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="65">
-        <v>1</v>
-      </c>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="65"/>
       <c r="G14" s="66"/>
     </row>
     <row r="15" spans="1:9" ht="15.95" customHeight="1">
       <c r="A15" s="29"/>
-      <c r="B15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="61">
-        <v>46049</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="45">
-        <v>6</v>
-      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="46"/>
     </row>
     <row r="16" spans="1:9" ht="15.95" customHeight="1">
       <c r="A16" s="29"/>
-      <c r="B16" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="61">
-        <v>46052</v>
-      </c>
-      <c r="D16" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="65">
-        <v>9</v>
-      </c>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="46"/>
     </row>
     <row r="17" spans="1:7" ht="15.95" customHeight="1">
@@ -1783,47 +1642,27 @@
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="47"/>
-      <c r="G23" s="48">
+      <c r="G23" s="48" t="str">
         <f>IF(SUM(F23:F29)=0,"",SUM(F23:F29))</f>
-        <v>8.6999999999999993</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:7" s="63" customFormat="1" ht="15.95" customHeight="1">
       <c r="A24" s="64"/>
-      <c r="B24" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="61">
-        <v>46035</v>
-      </c>
-      <c r="D24" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="65">
-        <v>1.5</v>
-      </c>
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="65"/>
       <c r="G24" s="66"/>
     </row>
     <row r="25" spans="1:7" s="63" customFormat="1" ht="15.95" customHeight="1">
       <c r="A25" s="64"/>
-      <c r="B25" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="65">
-        <v>7.2</v>
-      </c>
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="65"/>
       <c r="G25" s="66"/>
     </row>
     <row r="26" spans="1:7" s="63" customFormat="1" ht="15.95" customHeight="1">
@@ -1973,11 +1812,11 @@
       <c r="E39" s="34"/>
       <c r="F39" s="51">
         <f>SUM(F5:F38)</f>
-        <v>117.73</v>
+        <v>0</v>
       </c>
       <c r="G39" s="51">
         <f>SUM(G5,G7,G10,G17,G23,G29,G31,G33,G36)</f>
-        <v>117.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2119,7 +1958,7 @@
       </c>
       <c r="C18" s="54">
         <f>IF(VLOOKUP(B18,Details!A:G,7,FALSE)="",0,VLOOKUP(B18,Details!A:G,7,FALSE))</f>
-        <v>53.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="18" customHeight="1">
@@ -2128,7 +1967,7 @@
       </c>
       <c r="C19" s="19">
         <f>IF(VLOOKUP(B19,Details!A:G,7,FALSE)="",0,VLOOKUP(B19,Details!A:G,7,FALSE))</f>
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="18" customHeight="1">
@@ -2146,7 +1985,7 @@
       </c>
       <c r="C21" s="19">
         <f>IF(VLOOKUP(B21,Details!A:G,7,FALSE)="",0,VLOOKUP(B21,Details!A:G,7,FALSE))</f>
-        <v>8.6999999999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="18" customHeight="1">
@@ -2191,7 +2030,7 @@
       </c>
       <c r="C26" s="55">
         <f>VLOOKUP(B26,Details!A:G,6,FALSE)</f>
-        <v>117.73</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
